--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>Keter Purchase</t>
+    <t>Nama Purchase</t>
   </si>
   <si>
     <t>IT</t>
@@ -110,9 +110,6 @@
     <t>18 weeks</t>
   </si>
   <si>
-    <t>tetetet</t>
-  </si>
-  <si>
     <t>2021-09-01 09:52:22</t>
   </si>
   <si>
@@ -137,75 +134,12 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>testtt</t>
-  </si>
-  <si>
-    <t>2021-09-01 10:03:38</t>
-  </si>
-  <si>
-    <t>sdjshjskdjskl</t>
-  </si>
-  <si>
-    <t>testt4</t>
-  </si>
-  <si>
-    <t>2021-09-01 10:06:32</t>
-  </si>
-  <si>
-    <t>EATON VICKERS</t>
-  </si>
-  <si>
-    <t>A14SDSD3</t>
-  </si>
-  <si>
-    <t>TYRERER</t>
-  </si>
-  <si>
-    <t>2021-09-01 10:08:26</t>
+    <t>2021-09-02 13:43:12</t>
   </si>
   <si>
     <t>EATON JEIL</t>
   </si>
   <si>
-    <t>TEEWRERE</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>2021-09-01 10:08:58</t>
-  </si>
-  <si>
-    <t>EATON AEROQUIP</t>
-  </si>
-  <si>
-    <t>2021-09-01 13:48:46</t>
-  </si>
-  <si>
-    <t>EATON MOELLER</t>
-  </si>
-  <si>
-    <t>sfaasdsd</t>
-  </si>
-  <si>
-    <t>tested</t>
-  </si>
-  <si>
-    <t>2021-09-01 13:49:10</t>
-  </si>
-  <si>
-    <t>EATON</t>
-  </si>
-  <si>
-    <t>eatonns new bos</t>
-  </si>
-  <si>
-    <t>tttt</t>
-  </si>
-  <si>
-    <t>2021-09-02 13:43:12</t>
-  </si>
-  <si>
     <t>ttttt</t>
   </si>
   <si>
@@ -215,6 +149,15 @@
     <t>testt</t>
   </si>
   <si>
+    <t>2021-09-06 15:41:48</t>
+  </si>
+  <si>
+    <t>teetetet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIA </t>
+  </si>
+  <si>
     <t>2021-09-02 16:35:55</t>
   </si>
   <si>
@@ -236,28 +179,52 @@
     <t>23 WEEKS</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>2021-09-03 11:17:24</t>
-  </si>
-  <si>
-    <t>NACOL</t>
+    <t>2021-09-03 14:03:24</t>
+  </si>
+  <si>
+    <t>A244343DFDF</t>
   </si>
   <si>
     <t>2021-09-03</t>
   </si>
   <si>
+    <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
+  </si>
+  <si>
+    <t>2021-09-06 15:31:15</t>
+  </si>
+  <si>
+    <t>wwwww</t>
+  </si>
+  <si>
+    <t>Jpy</t>
+  </si>
+  <si>
+    <t>18 Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITRI </t>
+  </si>
+  <si>
+    <t>2021-09-06 14:56:07</t>
+  </si>
+  <si>
+    <t>TOKYO KEIKI</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
     <t>PRICE+LT</t>
   </si>
   <si>
-    <t>2021-09-03 14:03:24</t>
-  </si>
-  <si>
-    <t>A244343DFDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
+    <t>2021-09-06 14:58:23</t>
+  </si>
+  <si>
+    <t>14 hari</t>
   </si>
 </sst>
 </file>
@@ -596,7 +563,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,8 +691,8 @@
       <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
-        <v>31</v>
+      <c r="T2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -736,25 +703,25 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -763,13 +730,13 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3">
         <v>12121.102</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3">
         <v>212232323</v>
@@ -786,431 +753,255 @@
       <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
+      <c r="T3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>18727</v>
+        <v>18733</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>111</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>2132323</v>
+      </c>
+      <c r="P4">
+        <v>1212121</v>
+      </c>
+      <c r="Q4">
+        <v>121212</v>
+      </c>
+      <c r="R4">
+        <v>12121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>18728</v>
+        <v>18734</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>212</v>
+      </c>
+      <c r="P5">
+        <v>111</v>
+      </c>
+      <c r="Q5">
+        <v>222</v>
+      </c>
+      <c r="R5">
+        <v>1112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>18729</v>
+        <v>18736</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6">
+        <v>121.232</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>232323</v>
+      </c>
+      <c r="P6">
+        <v>2323232</v>
+      </c>
+      <c r="Q6">
+        <v>12121</v>
+      </c>
+      <c r="R6">
+        <v>121232</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>18730</v>
+        <v>18737</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>3424</v>
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+        <v>67</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>200000</v>
+      </c>
+      <c r="P7">
+        <v>2002020</v>
+      </c>
+      <c r="Q7">
+        <v>2000000</v>
+      </c>
+      <c r="R7">
+        <v>2000000</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
       <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>18731</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>18732</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>18733</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>18734</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11">
-        <v>212</v>
-      </c>
-      <c r="P11">
-        <v>111</v>
-      </c>
-      <c r="Q11">
-        <v>222</v>
-      </c>
-      <c r="R11">
-        <v>1112</v>
-      </c>
-      <c r="S11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>18735</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>18736</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -134,6 +134,36 @@
     <t>EUR</t>
   </si>
   <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>2021-09-07 13:12:27</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>eaton serie xxxxxx</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>yeyeye</t>
+  </si>
+  <si>
+    <t>2021-09-07 13:20:49</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYENTI </t>
+  </si>
+  <si>
     <t>2021-09-02 13:43:12</t>
   </si>
   <si>
@@ -179,15 +209,33 @@
     <t>23 WEEKS</t>
   </si>
   <si>
+    <t>2021-09-03 11:17:24</t>
+  </si>
+  <si>
+    <t>NACOL</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>PRICE+LT</t>
+  </si>
+  <si>
+    <t>2021-09-06 16:46:12</t>
+  </si>
+  <si>
     <t>2021-09-03 14:03:24</t>
   </si>
   <si>
     <t>A244343DFDF</t>
   </si>
   <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
   </si>
   <si>
@@ -216,9 +264,6 @@
   </si>
   <si>
     <t>2021-09-14</t>
-  </si>
-  <si>
-    <t>PRICE+LT</t>
   </si>
   <si>
     <t>2021-09-06 14:58:23</t>
@@ -563,7 +608,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,185 +804,185 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>18733</v>
+        <v>18732</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>0.003</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O4">
-        <v>2132323</v>
+        <v>10000</v>
       </c>
       <c r="P4">
-        <v>1212121</v>
+        <v>100000</v>
       </c>
       <c r="Q4">
-        <v>121212</v>
+        <v>100000</v>
       </c>
       <c r="R4">
-        <v>12121</v>
+        <v>100000</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>18734</v>
+        <v>18733</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O5">
-        <v>212</v>
+        <v>2132323</v>
       </c>
       <c r="P5">
-        <v>111</v>
+        <v>1212121</v>
       </c>
       <c r="Q5">
-        <v>222</v>
+        <v>121212</v>
       </c>
       <c r="R5">
-        <v>1112</v>
+        <v>12121</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>18736</v>
+        <v>18734</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>121.232</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O6">
-        <v>232323</v>
+        <v>212</v>
       </c>
       <c r="P6">
-        <v>2323232</v>
+        <v>111</v>
       </c>
       <c r="Q6">
-        <v>12121</v>
+        <v>222</v>
       </c>
       <c r="R6">
-        <v>121232</v>
+        <v>1112</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -945,63 +990,187 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
+        <v>18735</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7">
+        <v>23223.131</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7">
+        <v>12324</v>
+      </c>
+      <c r="P7">
+        <v>2232323</v>
+      </c>
+      <c r="Q7">
+        <v>1212121</v>
+      </c>
+      <c r="R7">
+        <v>121212</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>18736</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>121.232</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8">
+        <v>232323</v>
+      </c>
+      <c r="P8">
+        <v>2323232</v>
+      </c>
+      <c r="Q8">
+        <v>12121</v>
+      </c>
+      <c r="R8">
+        <v>121232</v>
+      </c>
+      <c r="S8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
         <v>18737</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>200</v>
       </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7">
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9">
         <v>200000</v>
       </c>
-      <c r="P7">
+      <c r="P9">
         <v>2002020</v>
       </c>
-      <c r="Q7">
+      <c r="Q9">
         <v>2000000</v>
       </c>
-      <c r="R7">
+      <c r="R9">
         <v>2000000</v>
       </c>
-      <c r="S7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7"/>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -134,142 +134,85 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>2021-09-02 16:35:55</t>
+  </si>
+  <si>
+    <t>INTEGRAL</t>
+  </si>
+  <si>
+    <t>a343trer34f</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>test note text area</t>
+  </si>
+  <si>
+    <t>2021-09-04 10:05:11</t>
+  </si>
+  <si>
+    <t>gurararar</t>
+  </si>
+  <si>
+    <t>23 WEEKS</t>
+  </si>
+  <si>
+    <t>2021-09-03 14:03:24</t>
+  </si>
+  <si>
+    <t>A244343DFDF</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
+  </si>
+  <si>
+    <t>2021-09-07 20:22:33</t>
+  </si>
+  <si>
+    <t>testtest</t>
+  </si>
+  <si>
+    <t>23.222.232</t>
+  </si>
+  <si>
+    <t>1 Hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT </t>
   </si>
   <si>
-    <t>2021-09-07 13:12:27</t>
+    <t>2021-09-04 22:02:08</t>
   </si>
   <si>
     <t>EATON</t>
   </si>
   <si>
-    <t>eaton serie xxxxxx</t>
-  </si>
-  <si>
-    <t>2021-09-07</t>
-  </si>
-  <si>
-    <t>yeyeye</t>
-  </si>
-  <si>
-    <t>2021-09-07 13:20:49</t>
-  </si>
-  <si>
-    <t>sgd</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYENTI </t>
-  </si>
-  <si>
-    <t>2021-09-02 13:43:12</t>
-  </si>
-  <si>
-    <t>EATON JEIL</t>
-  </si>
-  <si>
-    <t>ttttt</t>
-  </si>
-  <si>
-    <t>2021-09-02</t>
-  </si>
-  <si>
-    <t>testt</t>
-  </si>
-  <si>
-    <t>2021-09-06 15:41:48</t>
-  </si>
-  <si>
-    <t>teetetet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIA </t>
-  </si>
-  <si>
-    <t>2021-09-02 16:35:55</t>
-  </si>
-  <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
-    <t>a343trer34f</t>
-  </si>
-  <si>
-    <t>test note text area</t>
-  </si>
-  <si>
-    <t>2021-09-04 10:05:11</t>
-  </si>
-  <si>
-    <t>gurararar</t>
-  </si>
-  <si>
-    <t>23 WEEKS</t>
-  </si>
-  <si>
-    <t>2021-09-03 11:17:24</t>
-  </si>
-  <si>
-    <t>NACOL</t>
-  </si>
-  <si>
-    <t>tttt</t>
-  </si>
-  <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
-    <t>tested</t>
+    <t>testtt</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>new eaton yang bagoss</t>
   </si>
   <si>
     <t>PRICE+LT</t>
   </si>
   <si>
-    <t>2021-09-06 16:46:12</t>
-  </si>
-  <si>
-    <t>2021-09-03 14:03:24</t>
-  </si>
-  <si>
-    <t>A244343DFDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
-  </si>
-  <si>
-    <t>2021-09-06 15:31:15</t>
-  </si>
-  <si>
-    <t>wwwww</t>
-  </si>
-  <si>
-    <t>Jpy</t>
-  </si>
-  <si>
-    <t>18 Hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITRI </t>
-  </si>
-  <si>
-    <t>2021-09-06 14:56:07</t>
-  </si>
-  <si>
-    <t>TOKYO KEIKI</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>2021-09-14</t>
-  </si>
-  <si>
-    <t>2021-09-06 14:58:23</t>
-  </si>
-  <si>
-    <t>14 hari</t>
+    <t>2021-09-04 22:03:28</t>
+  </si>
+  <si>
+    <t>sabar bos</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>20 WEEKS</t>
   </si>
 </sst>
 </file>
@@ -608,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,9 +679,7 @@
       <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
+      <c r="T2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
@@ -798,379 +739,189 @@
       <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
+      <c r="T3"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>18732</v>
+        <v>18734</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="F4">
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>0.003</v>
-      </c>
       <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>212</v>
+      </c>
+      <c r="P4">
+        <v>111</v>
+      </c>
+      <c r="Q4">
+        <v>222</v>
+      </c>
+      <c r="R4">
+        <v>1112</v>
+      </c>
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="O4">
-        <v>10000</v>
-      </c>
-      <c r="P4">
-        <v>100000</v>
-      </c>
-      <c r="Q4">
-        <v>100000</v>
-      </c>
-      <c r="R4">
-        <v>100000</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
+      <c r="T4"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>18733</v>
+        <v>18736</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
       <c r="M5">
-        <v>111</v>
+        <v>23.236</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="O5">
-        <v>2132323</v>
+      <c r="O5" t="s">
+        <v>53</v>
       </c>
       <c r="P5">
+        <v>11212121</v>
+      </c>
+      <c r="Q5">
         <v>1212121</v>
       </c>
-      <c r="Q5">
-        <v>121212</v>
-      </c>
       <c r="R5">
-        <v>12121</v>
+        <v>121212121</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>18734</v>
+        <v>18737</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>122.34</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="O6">
-        <v>212</v>
+        <v>123232323</v>
       </c>
       <c r="P6">
-        <v>111</v>
+        <v>23232323</v>
       </c>
       <c r="Q6">
-        <v>222</v>
+        <v>22232323</v>
       </c>
       <c r="R6">
-        <v>1112</v>
+        <v>23232323</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>18735</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7">
-        <v>23223.131</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7">
-        <v>12324</v>
-      </c>
-      <c r="P7">
-        <v>2232323</v>
-      </c>
-      <c r="Q7">
-        <v>1212121</v>
-      </c>
-      <c r="R7">
-        <v>121212</v>
-      </c>
-      <c r="S7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>18736</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8">
-        <v>121.232</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8">
-        <v>232323</v>
-      </c>
-      <c r="P8">
-        <v>2323232</v>
-      </c>
-      <c r="Q8">
-        <v>12121</v>
-      </c>
-      <c r="R8">
-        <v>121232</v>
-      </c>
-      <c r="S8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>18737</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9">
-        <v>200</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9">
-        <v>200000</v>
-      </c>
-      <c r="P9">
-        <v>2002020</v>
-      </c>
-      <c r="Q9">
-        <v>2000000</v>
-      </c>
-      <c r="R9">
-        <v>2000000</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9"/>
+      <c r="T6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -134,6 +134,114 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>2021-09-01 10:08:26</t>
+  </si>
+  <si>
+    <t>EATON JEIL</t>
+  </si>
+  <si>
+    <t>TEEWRERE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:33:34</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>2021-09-01 10:08:58</t>
+  </si>
+  <si>
+    <t>EATON AEROQUIP</t>
+  </si>
+  <si>
+    <t>testtt</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:21:42</t>
+  </si>
+  <si>
+    <t>TESTEST</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>23 WEEKS</t>
+  </si>
+  <si>
+    <t>2021-09-01 13:48:46</t>
+  </si>
+  <si>
+    <t>EATON MOELLER</t>
+  </si>
+  <si>
+    <t>sfaasdsd</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:17:29</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>2021-09-07 13:12:27</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>eaton serie xxxxxx</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>yeyeye</t>
+  </si>
+  <si>
+    <t>2021-09-07 13:20:49</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYENTI </t>
+  </si>
+  <si>
+    <t>2021-09-02 13:43:12</t>
+  </si>
+  <si>
+    <t>ttttt</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>testt</t>
+  </si>
+  <si>
+    <t>2021-09-06 15:41:48</t>
+  </si>
+  <si>
+    <t>teetetet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIA </t>
+  </si>
+  <si>
     <t>2021-09-02 16:35:55</t>
   </si>
   <si>
@@ -143,9 +251,6 @@
     <t>a343trer34f</t>
   </si>
   <si>
-    <t>2021-09-02</t>
-  </si>
-  <si>
     <t>test note text area</t>
   </si>
   <si>
@@ -155,7 +260,22 @@
     <t>gurararar</t>
   </si>
   <si>
-    <t>23 WEEKS</t>
+    <t>2021-09-03 11:17:24</t>
+  </si>
+  <si>
+    <t>NACOL</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>PRICE+LT</t>
+  </si>
+  <si>
+    <t>2021-09-06 16:46:12</t>
   </si>
   <si>
     <t>2021-09-03 14:03:24</t>
@@ -164,55 +284,40 @@
     <t>A244343DFDF</t>
   </si>
   <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
   </si>
   <si>
-    <t>2021-09-07 20:22:33</t>
-  </si>
-  <si>
-    <t>testtest</t>
-  </si>
-  <si>
-    <t>23.222.232</t>
-  </si>
-  <si>
-    <t>1 Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT </t>
-  </si>
-  <si>
-    <t>2021-09-04 22:02:08</t>
-  </si>
-  <si>
-    <t>EATON</t>
-  </si>
-  <si>
-    <t>testtt</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>new eaton yang bagoss</t>
-  </si>
-  <si>
-    <t>PRICE+LT</t>
-  </si>
-  <si>
-    <t>2021-09-04 22:03:28</t>
-  </si>
-  <si>
-    <t>sabar bos</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>20 WEEKS</t>
+    <t>2021-09-06 15:31:15</t>
+  </si>
+  <si>
+    <t>wwwww</t>
+  </si>
+  <si>
+    <t>Jpy</t>
+  </si>
+  <si>
+    <t>18 Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITRI </t>
+  </si>
+  <si>
+    <t>2021-09-06 14:56:07</t>
+  </si>
+  <si>
+    <t>TOKYO KEIKI</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-09-06 14:58:23</t>
+  </si>
+  <si>
+    <t>14 hari</t>
   </si>
 </sst>
 </file>
@@ -551,7 +656,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +784,9 @@
       <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2"/>
+      <c r="T2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
@@ -739,11 +846,13 @@
       <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3"/>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>18734</v>
+        <v>18729</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -758,170 +867,544 @@
         <v>41</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>222.22</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4">
+        <v>1111</v>
+      </c>
+      <c r="P4">
+        <v>111111</v>
+      </c>
+      <c r="Q4">
+        <v>11111</v>
+      </c>
+      <c r="R4">
+        <v>11111</v>
+      </c>
+      <c r="S4">
+        <v>11111</v>
+      </c>
+      <c r="T4" t="s">
         <v>45</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4">
-        <v>212</v>
-      </c>
-      <c r="P4">
-        <v>111</v>
-      </c>
-      <c r="Q4">
-        <v>222</v>
-      </c>
-      <c r="R4">
-        <v>1112</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>18736</v>
+        <v>18730</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>3424</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5">
+        <v>12121.1</v>
+      </c>
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5">
+        <v>2323</v>
+      </c>
+      <c r="P5">
+        <v>1212232</v>
+      </c>
+      <c r="Q5">
+        <v>23232323</v>
+      </c>
+      <c r="R5">
+        <v>1212121</v>
+      </c>
+      <c r="S5" t="s">
         <v>52</v>
       </c>
-      <c r="M5">
-        <v>23.236</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5">
-        <v>11212121</v>
-      </c>
-      <c r="Q5">
-        <v>1212121</v>
-      </c>
-      <c r="R5">
-        <v>121212121</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>18737</v>
+        <v>18731</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6">
+        <v>1222.121</v>
+      </c>
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6">
-        <v>122.34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
       <c r="O6">
-        <v>123232323</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>23232323</v>
       </c>
       <c r="Q6">
-        <v>22232323</v>
+        <v>23232323</v>
       </c>
       <c r="R6">
-        <v>23232323</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>18732</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="T6"/>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>0.003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
+      <c r="P7">
+        <v>23000000</v>
+      </c>
+      <c r="Q7">
+        <v>23232</v>
+      </c>
+      <c r="R7">
+        <v>100000</v>
+      </c>
+      <c r="S7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>18733</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>111</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>2132323</v>
+      </c>
+      <c r="P8">
+        <v>1212121</v>
+      </c>
+      <c r="Q8">
+        <v>121212</v>
+      </c>
+      <c r="R8">
+        <v>12121</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>18734</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>212</v>
+      </c>
+      <c r="P9">
+        <v>111</v>
+      </c>
+      <c r="Q9">
+        <v>222</v>
+      </c>
+      <c r="R9">
+        <v>1112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>18735</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10">
+        <v>23223.131</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>12324</v>
+      </c>
+      <c r="P10">
+        <v>2232323</v>
+      </c>
+      <c r="Q10">
+        <v>1212121</v>
+      </c>
+      <c r="R10">
+        <v>121212</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>18736</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>121.232</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11">
+        <v>232323</v>
+      </c>
+      <c r="P11">
+        <v>2323232</v>
+      </c>
+      <c r="Q11">
+        <v>12121</v>
+      </c>
+      <c r="R11">
+        <v>121232</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>18737</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12">
+        <v>200000</v>
+      </c>
+      <c r="P12">
+        <v>2002020</v>
+      </c>
+      <c r="Q12">
+        <v>2000000</v>
+      </c>
+      <c r="R12">
+        <v>2000000</v>
+      </c>
+      <c r="S12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -104,7 +104,7 @@
     <t>tetete</t>
   </si>
   <si>
-    <t>EURO</t>
+    <t>EUR</t>
   </si>
   <si>
     <t>18 weeks</t>
@@ -113,7 +113,7 @@
     <t>2021-09-01 09:52:22</t>
   </si>
   <si>
-    <t>EATON AIRFLEX</t>
+    <t>EATON</t>
   </si>
   <si>
     <t>DDSDSD2</t>
@@ -131,15 +131,9 @@
     <t>aaaaa</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>2021-09-01 10:08:26</t>
   </si>
   <si>
-    <t>EATON JEIL</t>
-  </si>
-  <si>
     <t>TEEWRERE</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>2021-09-01 10:08:58</t>
   </si>
   <si>
-    <t>EATON AEROQUIP</t>
-  </si>
-  <si>
     <t>testtt</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>2021-09-01 13:48:46</t>
   </si>
   <si>
-    <t>EATON MOELLER</t>
-  </si>
-  <si>
     <t>sfaasdsd</t>
   </si>
   <si>
@@ -194,15 +182,9 @@
     <t>ok</t>
   </si>
   <si>
-    <t>Euro</t>
-  </si>
-  <si>
     <t>2021-09-07 13:12:27</t>
   </si>
   <si>
-    <t>EATON</t>
-  </si>
-  <si>
     <t>eaton serie xxxxxx</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>2021-09-07 13:20:49</t>
   </si>
   <si>
-    <t>sgd</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAYENTI </t>
   </si>
   <si>
@@ -245,9 +224,6 @@
     <t>2021-09-02 16:35:55</t>
   </si>
   <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
     <t>a343trer34f</t>
   </si>
   <si>
@@ -293,7 +269,7 @@
     <t>wwwww</t>
   </si>
   <si>
-    <t>Jpy</t>
+    <t>JPY</t>
   </si>
   <si>
     <t>18 Hour</t>
@@ -318,6 +294,21 @@
   </si>
   <si>
     <t>14 hari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN </t>
+  </si>
+  <si>
+    <t>2021-09-10 15:17:52</t>
+  </si>
+  <si>
+    <t>kekei</t>
+  </si>
+  <si>
+    <t>2021-09-11 09:04:21</t>
+  </si>
+  <si>
+    <t>21 Weeks</t>
   </si>
 </sst>
 </file>
@@ -656,7 +647,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,10 +820,10 @@
         <v>12121.102</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O3">
-        <v>212232323</v>
+        <v>134544227</v>
       </c>
       <c r="P3">
         <v>23223232</v>
@@ -858,13 +849,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -876,13 +867,13 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
         <v>37</v>
@@ -891,7 +882,7 @@
         <v>222.22</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4">
         <v>1111</v>
@@ -909,7 +900,7 @@
         <v>11111</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -920,13 +911,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -944,16 +935,16 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5">
         <v>12121.1</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O5">
         <v>2323</v>
@@ -968,10 +959,10 @@
         <v>1212121</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -982,13 +973,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -997,7 +988,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
@@ -1006,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M6">
         <v>1222.121</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1033,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1041,25 +1032,25 @@
         <v>18732</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -1068,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -1077,7 +1068,7 @@
         <v>0.003</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O7">
         <v>10000</v>
@@ -1092,10 +1083,10 @@
         <v>100000</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1106,22 +1097,22 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -1130,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M8">
         <v>111</v>
@@ -1157,7 +1148,7 @@
         <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1168,22 +1159,22 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
         <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
@@ -1192,16 +1183,16 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O9">
         <v>212</v>
@@ -1216,7 +1207,7 @@
         <v>1112</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1230,34 +1221,34 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M10">
         <v>23223.131</v>
@@ -1278,10 +1269,10 @@
         <v>121212</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1292,22 +1283,22 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
         <v>26</v>
@@ -1316,16 +1307,16 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M11">
         <v>121.232</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O11">
         <v>232323</v>
@@ -1340,7 +1331,7 @@
         <v>121232</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1351,34 +1342,34 @@
         <v>18737</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
@@ -1387,7 +1378,7 @@
         <v>200</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O12">
         <v>200000</v>
@@ -1402,9 +1393,69 @@
         <v>2000000</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>18738</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13">
+        <v>112.221</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>1627205</v>
+      </c>
+      <c r="P13">
+        <v>2928969</v>
+      </c>
+      <c r="Q13">
+        <v>3091689</v>
+      </c>
+      <c r="R13">
+        <v>3254410</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -309,6 +309,30 @@
   </si>
   <si>
     <t>21 Weeks</t>
+  </si>
+  <si>
+    <t>2021-09-11 13:23:18</t>
+  </si>
+  <si>
+    <t>BUCHER (INDIA)</t>
+  </si>
+  <si>
+    <t>A7232F23</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>2021-09-11 13:31:31</t>
+  </si>
+  <si>
+    <t>M+S HYDRAULIC</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -647,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,6 +1480,100 @@
       <c r="T13" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>18740</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14">
+        <v>1212</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>17574000</v>
+      </c>
+      <c r="P14">
+        <v>24603600</v>
+      </c>
+      <c r="Q14">
+        <v>26361000</v>
+      </c>
+      <c r="R14">
+        <v>28118400</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>18741</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Nama Purchase</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>ADMIN</t>
   </si>
   <si>
     <t>2021-09-01 09:51:00</t>
@@ -104,7 +104,7 @@
     <t>tetete</t>
   </si>
   <si>
-    <t>EURO</t>
+    <t>EUR</t>
   </si>
   <si>
     <t>18 weeks</t>
@@ -113,7 +113,7 @@
     <t>2021-09-01 09:52:22</t>
   </si>
   <si>
-    <t>EATON AIRFLEX</t>
+    <t>EATON</t>
   </si>
   <si>
     <t>DDSDSD2</t>
@@ -131,21 +131,102 @@
     <t>aaaaa</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>2021-09-01 10:08:26</t>
+  </si>
+  <si>
+    <t>TEEWRERE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:33:34</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>2021-09-01 10:08:58</t>
+  </si>
+  <si>
+    <t>testtt</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:21:42</t>
+  </si>
+  <si>
+    <t>TESTEST</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>23 WEEKS</t>
+  </si>
+  <si>
+    <t>2021-09-01 13:48:46</t>
+  </si>
+  <si>
+    <t>sfaasdsd</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>2021-09-07 14:17:29</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>2021-09-07 13:12:27</t>
+  </si>
+  <si>
+    <t>eaton serie xxxxxx</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>yeyeye</t>
+  </si>
+  <si>
+    <t>2021-09-07 13:20:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYENTI </t>
+  </si>
+  <si>
+    <t>2021-09-02 13:43:12</t>
+  </si>
+  <si>
+    <t>ttttt</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>testt</t>
+  </si>
+  <si>
+    <t>2021-09-06 15:41:48</t>
+  </si>
+  <si>
+    <t>teetetet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIA </t>
   </si>
   <si>
     <t>2021-09-02 16:35:55</t>
   </si>
   <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
     <t>a343trer34f</t>
   </si>
   <si>
-    <t>2021-09-02</t>
-  </si>
-  <si>
     <t>test note text area</t>
   </si>
   <si>
@@ -155,7 +236,22 @@
     <t>gurararar</t>
   </si>
   <si>
-    <t>23 WEEKS</t>
+    <t>2021-09-03 11:17:24</t>
+  </si>
+  <si>
+    <t>NACOL</t>
+  </si>
+  <si>
+    <t>tttt</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>PRICE+LT</t>
+  </si>
+  <si>
+    <t>2021-09-06 16:46:12</t>
   </si>
   <si>
     <t>2021-09-03 14:03:24</t>
@@ -164,55 +260,79 @@
     <t>A244343DFDF</t>
   </si>
   <si>
-    <t>2021-09-03</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST TEST TEST TEST TEST TEST </t>
   </si>
   <si>
-    <t>2021-09-07 20:22:33</t>
-  </si>
-  <si>
-    <t>testtest</t>
-  </si>
-  <si>
-    <t>23.222.232</t>
-  </si>
-  <si>
-    <t>1 Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT </t>
-  </si>
-  <si>
-    <t>2021-09-04 22:02:08</t>
-  </si>
-  <si>
-    <t>EATON</t>
-  </si>
-  <si>
-    <t>testtt</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>new eaton yang bagoss</t>
-  </si>
-  <si>
-    <t>PRICE+LT</t>
-  </si>
-  <si>
-    <t>2021-09-04 22:03:28</t>
-  </si>
-  <si>
-    <t>sabar bos</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>20 WEEKS</t>
+    <t>2021-09-06 15:31:15</t>
+  </si>
+  <si>
+    <t>wwwww</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>18 Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITRI </t>
+  </si>
+  <si>
+    <t>2021-09-06 14:56:07</t>
+  </si>
+  <si>
+    <t>TOKYO KEIKI</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-09-06 14:58:23</t>
+  </si>
+  <si>
+    <t>14 hari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN </t>
+  </si>
+  <si>
+    <t>2021-09-10 15:17:52</t>
+  </si>
+  <si>
+    <t>kekei</t>
+  </si>
+  <si>
+    <t>2021-09-11 09:04:21</t>
+  </si>
+  <si>
+    <t>21 Weeks</t>
+  </si>
+  <si>
+    <t>2021-09-11 13:23:18</t>
+  </si>
+  <si>
+    <t>BUCHER (INDIA)</t>
+  </si>
+  <si>
+    <t>A7232F23</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>2021-09-11 13:31:31</t>
+  </si>
+  <si>
+    <t>M+S HYDRAULIC</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -551,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +799,9 @@
       <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2"/>
+      <c r="T2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
@@ -722,10 +844,10 @@
         <v>12121.102</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O3">
-        <v>212232323</v>
+        <v>134544227</v>
       </c>
       <c r="P3">
         <v>23223232</v>
@@ -739,189 +861,719 @@
       <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3"/>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>18734</v>
+        <v>18729</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>222.22</v>
+      </c>
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4">
+        <v>1111</v>
+      </c>
+      <c r="P4">
+        <v>111111</v>
+      </c>
+      <c r="Q4">
+        <v>11111</v>
+      </c>
+      <c r="R4">
+        <v>11111</v>
+      </c>
+      <c r="S4">
+        <v>11111</v>
+      </c>
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4">
-        <v>212</v>
-      </c>
-      <c r="P4">
-        <v>111</v>
-      </c>
-      <c r="Q4">
-        <v>222</v>
-      </c>
-      <c r="R4">
-        <v>1112</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>18736</v>
+        <v>18730</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>3424</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="M5">
+        <v>12121.1</v>
+      </c>
+      <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="O5">
+        <v>2323</v>
+      </c>
+      <c r="P5">
+        <v>1212232</v>
+      </c>
+      <c r="Q5">
+        <v>23232323</v>
+      </c>
+      <c r="R5">
+        <v>1212121</v>
+      </c>
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <v>23.236</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5">
-        <v>11212121</v>
-      </c>
-      <c r="Q5">
-        <v>1212121</v>
-      </c>
-      <c r="R5">
-        <v>121212121</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>18737</v>
+        <v>18731</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>122.34</v>
+        <v>1222.121</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="O6">
-        <v>123232323</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>23232323</v>
       </c>
       <c r="Q6">
-        <v>22232323</v>
+        <v>23232323</v>
       </c>
       <c r="R6">
-        <v>23232323</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>18732</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>0.003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
+      <c r="P7">
+        <v>23000000</v>
+      </c>
+      <c r="Q7">
+        <v>23232</v>
+      </c>
+      <c r="R7">
+        <v>100000</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>18733</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>65</v>
       </c>
-      <c r="T6"/>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8">
+        <v>111</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <v>2132323</v>
+      </c>
+      <c r="P8">
+        <v>1212121</v>
+      </c>
+      <c r="Q8">
+        <v>121212</v>
+      </c>
+      <c r="R8">
+        <v>12121</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>18734</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>212</v>
+      </c>
+      <c r="P9">
+        <v>111</v>
+      </c>
+      <c r="Q9">
+        <v>222</v>
+      </c>
+      <c r="R9">
+        <v>1112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>18735</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10">
+        <v>23223.131</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>12324</v>
+      </c>
+      <c r="P10">
+        <v>2232323</v>
+      </c>
+      <c r="Q10">
+        <v>1212121</v>
+      </c>
+      <c r="R10">
+        <v>121212</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>18736</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11">
+        <v>121.232</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11">
+        <v>232323</v>
+      </c>
+      <c r="P11">
+        <v>2323232</v>
+      </c>
+      <c r="Q11">
+        <v>12121</v>
+      </c>
+      <c r="R11">
+        <v>121232</v>
+      </c>
+      <c r="S11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>18737</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>200</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12">
+        <v>200000</v>
+      </c>
+      <c r="P12">
+        <v>2002020</v>
+      </c>
+      <c r="Q12">
+        <v>2000000</v>
+      </c>
+      <c r="R12">
+        <v>2000000</v>
+      </c>
+      <c r="S12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>18738</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13">
+        <v>112.221</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>1627205</v>
+      </c>
+      <c r="P13">
+        <v>2928969</v>
+      </c>
+      <c r="Q13">
+        <v>3091689</v>
+      </c>
+      <c r="R13">
+        <v>3254410</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>18740</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14">
+        <v>1212</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>17574000</v>
+      </c>
+      <c r="P14">
+        <v>24603600</v>
+      </c>
+      <c r="Q14">
+        <v>26361000</v>
+      </c>
+      <c r="R14">
+        <v>28118400</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>18741</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -77,7 +77,7 @@
     <t>Nama Purchase</t>
   </si>
   <si>
-    <t>ADMIN</t>
+    <t>IT</t>
   </si>
   <si>
     <t>2021-09-01 09:51:00</t>
@@ -1056,7 +1056,7 @@
         <v>18732</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -311,6 +311,24 @@
     <t>21 Weeks</t>
   </si>
   <si>
+    <t xml:space="preserve">LEVY </t>
+  </si>
+  <si>
+    <t>2021-09-11 09:46:13</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>tttest</t>
+  </si>
+  <si>
+    <t>2021-09-25 22:26:04</t>
+  </si>
+  <si>
+    <t>30 WEEKS</t>
+  </si>
+  <si>
     <t>2021-09-11 13:23:18</t>
   </si>
   <si>
@@ -323,6 +341,12 @@
     <t>TEST</t>
   </si>
   <si>
+    <t>2021-09-25 22:25:21</t>
+  </si>
+  <si>
+    <t>20 WEEKS</t>
+  </si>
+  <si>
     <t>2021-09-11 13:31:31</t>
   </si>
   <si>
@@ -333,6 +357,54 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>2021-09-25 22:24:18</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>2021-09-12 18:21:04</t>
+  </si>
+  <si>
+    <t>eeq</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test test test </t>
+  </si>
+  <si>
+    <t>2021-09-25 21:59:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERMAN </t>
+  </si>
+  <si>
+    <t>2021-09-25 20:46:12</t>
+  </si>
+  <si>
+    <t>DAIKIN</t>
+  </si>
+  <si>
+    <t>A672262722h</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>Cepet coey</t>
+  </si>
+  <si>
+    <t>2021-09-25 21:58:43</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -671,7 +743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,97 +1555,307 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>18740</v>
+        <v>18739</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>100</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
       <c r="M14">
-        <v>1212</v>
+        <v>12132.12</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O14">
-        <v>17574000</v>
+        <v>1223232</v>
       </c>
       <c r="P14">
-        <v>24603600</v>
+        <v>232323</v>
       </c>
       <c r="Q14">
-        <v>26361000</v>
+        <v>23232323</v>
       </c>
       <c r="R14">
-        <v>28118400</v>
-      </c>
-      <c r="S14"/>
-      <c r="T14"/>
+        <v>23121232</v>
+      </c>
+      <c r="S14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>18741</v>
+        <v>18740</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
       <c r="L15"/>
-      <c r="M15"/>
+      <c r="M15">
+        <v>12121.1</v>
+      </c>
       <c r="N15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+        <v>29</v>
+      </c>
+      <c r="O15">
+        <v>11232321</v>
+      </c>
+      <c r="P15">
+        <v>1232323</v>
+      </c>
+      <c r="Q15">
+        <v>232321212</v>
+      </c>
+      <c r="R15">
+        <v>22321211</v>
+      </c>
+      <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>18741</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16">
+        <v>12121.1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16">
+        <v>111112</v>
+      </c>
+      <c r="P16">
+        <v>111132</v>
+      </c>
+      <c r="Q16">
+        <v>121212</v>
+      </c>
+      <c r="R16">
+        <v>2231211</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>18742</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17">
+        <v>111.222</v>
+      </c>
+      <c r="N17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17">
+        <v>100000</v>
+      </c>
+      <c r="P17">
+        <v>100000</v>
+      </c>
+      <c r="Q17">
+        <v>100000</v>
+      </c>
+      <c r="R17">
+        <v>100002</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>18743</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18">
+        <v>1113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18">
+        <v>113</v>
+      </c>
+      <c r="P18">
+        <v>2213</v>
+      </c>
+      <c r="Q18">
+        <v>11311</v>
+      </c>
+      <c r="R18">
+        <v>1212</v>
+      </c>
+      <c r="S18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/assets/excel/Data Inquiry.xlsx
+++ b/assets/excel/Data Inquiry.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>ID Inquiry</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Nama Purchase</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>ADMIN</t>
   </si>
   <si>
     <t>2021-09-01 09:51:00</t>
@@ -311,24 +311,6 @@
     <t>21 Weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">LEVY </t>
-  </si>
-  <si>
-    <t>2021-09-11 09:46:13</t>
-  </si>
-  <si>
-    <t>2021-09-25</t>
-  </si>
-  <si>
-    <t>tttest</t>
-  </si>
-  <si>
-    <t>2021-09-25 22:26:04</t>
-  </si>
-  <si>
-    <t>30 WEEKS</t>
-  </si>
-  <si>
     <t>2021-09-11 13:23:18</t>
   </si>
   <si>
@@ -341,12 +323,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>2021-09-25 22:25:21</t>
-  </si>
-  <si>
-    <t>20 WEEKS</t>
-  </si>
-  <si>
     <t>2021-09-11 13:31:31</t>
   </si>
   <si>
@@ -359,52 +335,59 @@
     <t>OK</t>
   </si>
   <si>
-    <t>2021-09-25 22:24:18</t>
+    <t>2021-09-25 11:10:06</t>
+  </si>
+  <si>
+    <t>SDSDSSFD78878</t>
+  </si>
+  <si>
+    <t>2. 2 Way, 2 stage, solenoid op</t>
+  </si>
+  <si>
+    <t>2021-09-25 11:33:51</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>1 Month</t>
+  </si>
+  <si>
+    <t>2021-09-25 11:20:50</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>A224232DSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 2 Way, 2 stage, solenoid operated directional poppet valve, flow 1-2 (series 740), Model DFCIXCN, before model DFCA)
+</t>
+  </si>
+  <si>
+    <t>2021-09-25 11:24:15</t>
+  </si>
+  <si>
+    <t>8 WEEKS</t>
+  </si>
+  <si>
+    <t>2021-09-28 12:00:01</t>
+  </si>
+  <si>
+    <t>CASAPPA</t>
+  </si>
+  <si>
+    <t>2021-09-28 16:42:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
   <si>
     <t>AUD</t>
-  </si>
-  <si>
-    <t>2021-09-12 18:21:04</t>
-  </si>
-  <si>
-    <t>eeq</t>
-  </si>
-  <si>
-    <t>2021-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test test test </t>
-  </si>
-  <si>
-    <t>2021-09-25 21:59:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERMAN </t>
-  </si>
-  <si>
-    <t>2021-09-25 20:46:12</t>
-  </si>
-  <si>
-    <t>DAIKIN</t>
-  </si>
-  <si>
-    <t>A672262722h</t>
-  </si>
-  <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
-    <t>Cepet coey</t>
-  </si>
-  <si>
-    <t>2021-09-25 21:58:43</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>IDR</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1111,7 @@
         <v>18732</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -1555,150 +1538,122 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>18739</v>
+        <v>18740</v>
       </c>
       <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
       <c r="M14">
-        <v>12132.12</v>
+        <v>1212</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O14">
-        <v>1223232</v>
+        <v>17574000</v>
       </c>
       <c r="P14">
-        <v>232323</v>
+        <v>24603600</v>
       </c>
       <c r="Q14">
-        <v>23232323</v>
+        <v>26361000</v>
       </c>
       <c r="R14">
-        <v>23121232</v>
-      </c>
-      <c r="S14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14" t="s">
-        <v>93</v>
-      </c>
+        <v>28118400</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>18740</v>
+        <v>18741</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
       <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>108</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15"/>
-      <c r="M15">
-        <v>12121.1</v>
-      </c>
+      <c r="M15"/>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15">
-        <v>11232321</v>
-      </c>
-      <c r="P15">
-        <v>1232323</v>
-      </c>
-      <c r="Q15">
-        <v>232321212</v>
-      </c>
-      <c r="R15">
-        <v>22321211</v>
-      </c>
-      <c r="S15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" t="s">
-        <v>93</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
-        <v>18741</v>
+        <v>18745</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -1707,29 +1662,31 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16"/>
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
       <c r="M16">
-        <v>12121.1</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O16">
-        <v>111112</v>
+        <v>1222</v>
       </c>
       <c r="P16">
-        <v>111132</v>
+        <v>2000</v>
       </c>
       <c r="Q16">
-        <v>121212</v>
+        <v>20000</v>
       </c>
       <c r="R16">
-        <v>2231211</v>
+        <v>2000</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="T16" t="s">
         <v>93</v>
@@ -1737,28 +1694,28 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17">
-        <v>18742</v>
+        <v>18746</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
       </c>
       <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
         <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" t="s">
-        <v>119</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -1767,17 +1724,17 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17"/>
       <c r="M17">
-        <v>111.222</v>
+        <v>10000</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="O17">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="P17">
         <v>100000</v>
@@ -1786,10 +1743,10 @@
         <v>100000</v>
       </c>
       <c r="R17">
-        <v>100002</v>
+        <v>1000</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="T17" t="s">
         <v>93</v>
@@ -1797,28 +1754,28 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18">
-        <v>18743</v>
+        <v>18747</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -1827,31 +1784,31 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>1113</v>
+        <v>1133.003</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O18">
-        <v>113</v>
+        <v>1121212</v>
       </c>
       <c r="P18">
-        <v>2213</v>
+        <v>121213232</v>
       </c>
       <c r="Q18">
-        <v>11311</v>
+        <v>2147483647</v>
       </c>
       <c r="R18">
-        <v>1212</v>
+        <v>223423431</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="T18" t="s">
         <v>93</v>
